--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3200780.923043497</v>
+        <v>3292535.960606144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10907410.15957845</v>
+        <v>11445344.09790122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.37779077</v>
+        <v>1406398.039877627</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7684159.431439239</v>
+        <v>7620663.456751151</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>297.4790285486649</v>
       </c>
       <c r="C11" t="n">
         <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.13459721319753</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800363</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404362</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1607,7 +1609,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020903</v>
@@ -1622,7 +1624,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>241.651073118017</v>
+        <v>211.8966705306596</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1770,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1819,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1828,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536693</v>
+        <v>230.5165254678481</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>77.18791253260682</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1910,7 +1912,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>89.67180144361265</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
@@ -2096,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>135.6144989434177</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687285</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>35.9972875576233</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2381,7 +2383,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2496,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>189.7454789751422</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020909</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572903</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>205.3072713607635</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231193</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,7 +2851,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2860,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124569</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>294.181775271962</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>194.5125055497251</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>20.63569539665724</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403102</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>91.2799137904187</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>78.69475470710924</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>60.06340662669376</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>56.86898163141265</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>56.20294852280219</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>7.800354018319503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>0.3800862785287364</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323094</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>197.9709319450724</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>168.4096149907195</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>166.3246215597533</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H35" t="n">
-        <v>241.6510731180183</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.63569539665724</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>122.531939783619</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>78.69475470710924</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>57.88189625505058</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>56.86898163141265</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>77.47374186750963</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>56.20294852280219</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>7.800354018319503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>0.3800862785287364</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>101.2169589399233</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870209</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323094</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>166.3246215597533</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>20.63569539665724</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W38" t="n">
-        <v>234.0716522785269</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>91.2799137904187</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>78.69475470710924</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>91.31543261989398</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>57.88189625505058</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>56.86898163141265</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>77.47374186750963</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>56.20294852280219</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>7.800354018319503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>0.3800862785287364</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323094</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>173.5578851713675</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>177.6750971497179</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>33.11646411603036</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U43" t="n">
-        <v>241.7954693814978</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>327.8601765800322</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F44" t="n">
-        <v>325.3824624821234</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C46" t="n">
-        <v>127.5940489889905</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>185.0412289261287</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.597850733289</v>
+        <v>1340.033859359386</v>
       </c>
       <c r="C11" t="n">
-        <v>995.0849667409502</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="D11" t="n">
-        <v>684.268901082273</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>684.268901082273</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3277.995117353415</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.46700268571</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2913.38615890762</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2629.772904512123</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2324.453882190082</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.437756877076</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1655.748057849337</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
@@ -5194,13 +5196,13 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5242,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>3081.513828560668</v>
+        <v>2684.118786698483</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238627</v>
+        <v>2378.799764376442</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>2378.799764376442</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>2036.110065348704</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5372,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5431,16 +5433,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5457,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.849925018064</v>
+        <v>1912.979097794871</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.337041025726</v>
+        <v>1591.466213802533</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.520975367048</v>
+        <v>1280.650148143856</v>
       </c>
       <c r="E17" t="n">
-        <v>680.1823557168773</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>316.646083875343</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G17" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5522,19 +5524,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5543,22 +5545,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3167.077706941465</v>
       </c>
       <c r="U17" t="n">
-        <v>3247.638233192396</v>
+        <v>3167.077706941465</v>
       </c>
       <c r="V17" t="n">
-        <v>2964.024978796898</v>
+        <v>2883.464452545968</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.705956474857</v>
+        <v>2578.145430223927</v>
       </c>
       <c r="X17" t="n">
-        <v>2332.689831161851</v>
+        <v>2252.12930491092</v>
       </c>
       <c r="Y17" t="n">
-        <v>1990.000132134112</v>
+        <v>2252.12930491092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C19" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315258</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337119</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
         <v>2175.221948702825</v>
@@ -5716,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1459.895634131916</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1138.382750139578</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.805172923808</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T20" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3056.683942306248</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V20" t="n">
-        <v>2773.070687910751</v>
+        <v>2820.623417021138</v>
       </c>
       <c r="W20" t="n">
-        <v>2467.75166558871</v>
+        <v>2820.623417021138</v>
       </c>
       <c r="X20" t="n">
-        <v>2141.735540275703</v>
+        <v>2494.607291708131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1799.045841247965</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
         <v>335.4089181770415</v>
@@ -5905,28 +5907,28 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
@@ -5953,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467795</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398493</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>792.1780824632697</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1243.212295711679</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1776.744200383603</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2323.523017442385</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2826.495488321722</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768668</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3289.244925086319</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3289.244925086319</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3289.244925086319</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3005.631670690821</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>1241.423906001259</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>1142.65635216719</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>1184.40832563295</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>1797.966077535136</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>2188.628508387092</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>2576.542270345363</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>2922.377254518183</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>3201.490140204249</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519665</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>1092.155029011367</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1543.189242259776</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2076.7211469317</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2623.499963990483</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3126.47243486982</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2189.288269386089</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>1846.598570358351</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>335.4089181770422</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>215.1557144998345</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>2200.835586644152</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2747.614403702934</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>3250.586874582271</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3645.361240939449</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603404</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698006</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899669</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913846</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151967</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>1637.342709548463</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1357.826724316656</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1089.00755741851</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>792.6658365288702</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>471.1264634478673</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3250.586874582271</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3645.361240939449</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3188.230468937697</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3024.146523920138</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>2782.530168285172</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>2519.208044723662</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2235.188818171187</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>1934.49601790398</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>2042.692295419462</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>1963.202644200159</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>1902.532536496428</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>1754.619442914035</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>1697.17602712473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>1529.473190499449</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>1472.702535425911</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>3325.221896075303</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>3133.536011902129</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>3001.21592818026</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>2801.559593014508</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>2636.321636517226</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>2436.35099818887</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>2266.240275976022</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>2134.894228541097</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2012.430767830338</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C35" t="n">
-        <v>1690.917883837999</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D35" t="n">
-        <v>1380.101818179322</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.763198529151</v>
+        <v>921.8144766422133</v>
       </c>
       <c r="F35" t="n">
-        <v>678.2269266876169</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G35" t="n">
-        <v>310.6041094806868</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6935,25 +6937,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052369</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.761684844871</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3188.230468937698</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3024.146523920139</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2782.530168285173</v>
       </c>
       <c r="W35" t="n">
-        <v>3020.286799287131</v>
+        <v>2519.208044723663</v>
       </c>
       <c r="X35" t="n">
-        <v>2694.270673974124</v>
+        <v>2235.188818171188</v>
       </c>
       <c r="Y35" t="n">
-        <v>2351.580974946386</v>
+        <v>1934.496017903981</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.466249805294</v>
+        <v>554.9344901901795</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254603</v>
+        <v>475.4448389708773</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611979</v>
+        <v>325.3281995585416</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268782</v>
+        <v>266.8616376847531</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770412</v>
+        <v>209.4182218954474</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>131.161916978771</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>74.39126190523343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1692.351186368187</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1403.24831949383</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1238.010362996548</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>948.5931929595874</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>810.0501737701748</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874603</v>
+        <v>678.7041263352493</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232656</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>921.8144766422133</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,10 +7174,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7187,7 +7189,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.76478608434</v>
+        <v>3304.761684844871</v>
       </c>
       <c r="T38" t="n">
-        <v>3262.76478608434</v>
+        <v>3188.230468937698</v>
       </c>
       <c r="U38" t="n">
-        <v>3262.76478608434</v>
+        <v>3024.146523920139</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.76478608434</v>
+        <v>2782.530168285173</v>
       </c>
       <c r="W38" t="n">
-        <v>3026.328773681787</v>
+        <v>2519.208044723663</v>
       </c>
       <c r="X38" t="n">
-        <v>2700.312648368781</v>
+        <v>2235.188818171188</v>
       </c>
       <c r="Y38" t="n">
-        <v>2357.622949341042</v>
+        <v>1934.496017903981</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7253,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052944</v>
+        <v>497.0556615050095</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254608</v>
+        <v>417.5660102857073</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611984</v>
+        <v>325.3281995585416</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>266.8616376847531</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770415</v>
+        <v>209.4182218954474</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>131.161916978771</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>74.39126190523343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>1735.224738381452</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1602.904654659582</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1313.801787785226</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1148.563831287943</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>859.1466612509828</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>720.6036420615701</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>589.2575946266446</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038044</v>
+        <v>1678.113595955774</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1351.147977775893</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.669719097632</v>
+        <v>1034.879177929674</v>
       </c>
       <c r="E41" t="n">
-        <v>1067.881466499388</v>
+        <v>691.0878240919612</v>
       </c>
       <c r="F41" t="n">
-        <v>656.8955617097804</v>
+        <v>322.098818062885</v>
       </c>
       <c r="G41" t="n">
-        <v>241.8231115547769</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2881.797625075919</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2702.327829975194</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2702.327829975194</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2370.858970474645</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>2022.716537259364</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.6774975139006</v>
+        <v>667.6378438997368</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>540.6985597323612</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>540.6985597323612</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>434.7823649104994</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>329.8893161731203</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>204.1833783083705</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>99.96309028675955</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020816</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U43" t="n">
-        <v>1371.459627555448</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V43" t="n">
-        <v>1371.459627555448</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W43" t="n">
-        <v>1371.459627555448</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X43" t="n">
-        <v>1143.470076657431</v>
+        <v>986.0850903524441</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.6774975139006</v>
+        <v>807.2894099694453</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.038871968309</v>
+        <v>1724.223529170366</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.038871968309</v>
+        <v>1724.223529170366</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.038871968309</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E44" t="n">
-        <v>852.2506193700651</v>
+        <v>1064.163375486434</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>322.0988180628849</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896796</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896796</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>3045.778473931164</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>3045.778473931164</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269323</v>
+        <v>2735.006717421581</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008243</v>
+        <v>2403.537857921032</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.638712032431</v>
+        <v>2055.395424705752</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4316570185995</v>
+        <v>693.4151010964775</v>
       </c>
       <c r="C46" t="n">
-        <v>530.5487792519424</v>
+        <v>566.4758169291019</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4321398396067</v>
+        <v>458.3560762772975</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396067</v>
+        <v>352.4398814554356</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>247.5468327180565</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1445.2752709631</v>
       </c>
       <c r="W46" t="n">
-        <v>880.2242361621296</v>
+        <v>1197.854999686671</v>
       </c>
       <c r="X46" t="n">
-        <v>880.2242361621296</v>
+        <v>1011.862347549185</v>
       </c>
       <c r="Y46" t="n">
-        <v>659.4316570185995</v>
+        <v>833.066667166186</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.6038539184176</v>
+        <v>219.9576593048886</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777429002</v>
+        <v>235.6024194272099</v>
       </c>
       <c r="M5" t="n">
-        <v>207.5890673186451</v>
+        <v>230.1637565873748</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2876629516772</v>
+        <v>229.227634293886</v>
       </c>
       <c r="O5" t="n">
-        <v>208.2615513518525</v>
+        <v>229.9231157892984</v>
       </c>
       <c r="P5" t="n">
-        <v>212.595911594652</v>
+        <v>231.0835556840067</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.3100158302399</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969142</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6439426936441</v>
+        <v>137.751652684415</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735839</v>
+        <v>138.4336510327282</v>
       </c>
       <c r="M6" t="n">
-        <v>124.5639070747223</v>
+        <v>141.993149168506</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599335</v>
+        <v>131.1970985296112</v>
       </c>
       <c r="O6" t="n">
-        <v>126.0976003197211</v>
+        <v>142.4639512953397</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580801</v>
+        <v>133.8682304990036</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.1301041576209</v>
+        <v>139.9107976299678</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733972</v>
+        <v>134.8153717464529</v>
       </c>
       <c r="M7" t="n">
-        <v>129.8127835797926</v>
+        <v>138.8527120328867</v>
       </c>
       <c r="N7" t="n">
-        <v>118.78923087761</v>
+        <v>127.6142100373231</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435932</v>
+        <v>138.3906495618561</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841777</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8456,16 +8458,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -8550,7 +8552,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,7 +8619,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>231.1066821161378</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.02214132148734</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>40.02214132148688</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.17313444033134</v>
+        <v>15.3016983025325</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3588981658848</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>38.27967649622303</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15.07802795638573</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.12604873352532</v>
+        <v>68.88045132088266</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>104.4387079858211</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>126.8321228077026</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -23972,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>218.0361035584778</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536693</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>203.6483030940433</v>
       </c>
     </row>
     <row r="21">
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>26.21533761195998</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>146.0132260697458</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>102.4006336413269</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>127.8571537122098</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>127.8571537122087</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.981554650709569</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>127.8571537122087</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>68.19417982029353</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H41" t="n">
-        <v>121.049879215953</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>108.5002315474911</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>21.65902652088179</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.4163688241151</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>13.29673531052242</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>81.49358325958804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>39.65277210963733</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.51948462477336</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755147.4243061013</v>
+        <v>762868.7643044142</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623823.6872121206</v>
+        <v>623823.6872121205</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623823.6872121206</v>
+        <v>623823.6872121205</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623823.6872121205</v>
+        <v>623823.6872121206</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>697861.3738440763</v>
+        <v>623823.6872121206</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>697861.3738440763</v>
+        <v>623823.6872121206</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697861.3738440763</v>
+        <v>623823.6872121206</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>697861.3738440763</v>
+        <v>660890.3516432795</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623823.6872121207</v>
+        <v>660890.3516432795</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623823.6872121206</v>
+        <v>660890.3516432795</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557794.2376537196</v>
+        <v>616540.0845055615</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557794.2376537195</v>
+        <v>616540.0845055614</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811867</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="C2" t="n">
-        <v>778322.3223657031</v>
+        <v>778312.6003664439</v>
       </c>
       <c r="D2" t="n">
-        <v>778383.8949127765</v>
+        <v>778383.8949127767</v>
       </c>
       <c r="E2" t="n">
+        <v>726304.4593953518</v>
+      </c>
+      <c r="F2" t="n">
         <v>726304.4593953507</v>
       </c>
-      <c r="F2" t="n">
-        <v>726304.4593953508</v>
-      </c>
       <c r="G2" t="n">
+        <v>726304.4593953509</v>
+      </c>
+      <c r="H2" t="n">
         <v>726304.4593953507</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>726304.4593953509</v>
       </c>
-      <c r="I2" t="n">
-        <v>779989.6813710699</v>
-      </c>
       <c r="J2" t="n">
-        <v>779989.6813710704</v>
+        <v>726304.4593953521</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710697</v>
+        <v>726304.4593953509</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>770321.1234073527</v>
       </c>
       <c r="M2" t="n">
-        <v>726304.4593953508</v>
+        <v>770321.1234073528</v>
       </c>
       <c r="N2" t="n">
-        <v>726304.4593953507</v>
+        <v>770321.1234073527</v>
       </c>
       <c r="O2" t="n">
-        <v>647894.4880447489</v>
+        <v>717655.1811813111</v>
       </c>
       <c r="P2" t="n">
-        <v>647894.4880447489</v>
+        <v>717655.1811813115</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26368,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375669985</v>
+        <v>235.3943822344872</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.1820050294</v>
+        <v>200847.5250114618</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621992</v>
+        <v>972725.1766621991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.08085418510018e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902301</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>33261.54381834075</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>442265.6853413271</v>
+        <v>452318.3501244023</v>
       </c>
       <c r="D4" t="n">
-        <v>379422.8644899274</v>
+        <v>379422.8644899273</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863552</v>
+        <v>60045.38930863551</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863551</v>
+        <v>60045.38930863555</v>
       </c>
       <c r="G4" t="n">
+        <v>60045.38930863539</v>
+      </c>
+      <c r="H4" t="n">
         <v>60045.38930863544</v>
       </c>
-      <c r="H4" t="n">
-        <v>60045.38930863541</v>
-      </c>
       <c r="I4" t="n">
-        <v>88960.95519699581</v>
+        <v>60045.38930863544</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>60045.38930863549</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699581</v>
+        <v>60045.38930863548</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699581</v>
+        <v>86374.95728248451</v>
       </c>
       <c r="M4" t="n">
-        <v>60045.38930863549</v>
+        <v>86374.95728248451</v>
       </c>
       <c r="N4" t="n">
-        <v>60045.38930863545</v>
+        <v>86374.95728248451</v>
       </c>
       <c r="O4" t="n">
-        <v>12820.12292715302</v>
+        <v>54835.51151607363</v>
       </c>
       <c r="P4" t="n">
-        <v>12820.12292715302</v>
+        <v>54835.51151607363</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389184</v>
+        <v>33633.23539014049</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26479,37 +26481,37 @@
         <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
+        <v>78255.49332178176</v>
+      </c>
+      <c r="I5" t="n">
         <v>78255.49332178175</v>
       </c>
-      <c r="I5" t="n">
-        <v>89377.94167480613</v>
-      </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.67147047342</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.67147047339</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292284.9312322215</v>
+        <v>292284.9312322214</v>
       </c>
       <c r="C6" t="n">
-        <v>272369.5481937843</v>
+        <v>292125.6204696666</v>
       </c>
       <c r="D6" t="n">
-        <v>186756.0435866731</v>
+        <v>159367.7005802409</v>
       </c>
       <c r="E6" t="n">
-        <v>-384721.5998972658</v>
+        <v>-384721.5998972645</v>
       </c>
       <c r="F6" t="n">
-        <v>588003.5767649335</v>
+        <v>588003.5767649336</v>
       </c>
       <c r="G6" t="n">
         <v>588003.5767649334</v>
       </c>
       <c r="H6" t="n">
+        <v>588003.5767649333</v>
+      </c>
+      <c r="I6" t="n">
         <v>588003.5767649338</v>
       </c>
-      <c r="I6" t="n">
-        <v>553004.5248202449</v>
-      </c>
       <c r="J6" t="n">
-        <v>564070.6752043944</v>
+        <v>550423.4674700607</v>
       </c>
       <c r="K6" t="n">
-        <v>601650.7844992678</v>
+        <v>588003.5767649336</v>
       </c>
       <c r="L6" t="n">
-        <v>601650.7844992676</v>
+        <v>568933.7980756656</v>
       </c>
       <c r="M6" t="n">
-        <v>426403.1436598193</v>
+        <v>395006.7736019335</v>
       </c>
       <c r="N6" t="n">
-        <v>588003.5767649334</v>
+        <v>602195.3418940064</v>
       </c>
       <c r="O6" t="n">
-        <v>560768.0245562026</v>
+        <v>585017.9981947641</v>
       </c>
       <c r="P6" t="n">
-        <v>560768.0245562026</v>
+        <v>585017.9981947645</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742383</v>
+        <v>0.2585041348849302</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26796,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742383</v>
+        <v>0.2585041348849302</v>
       </c>
       <c r="D3" t="n">
-        <v>202.5412732685704</v>
+        <v>234.5215339911093</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673038</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1475046259336</v>
+        <v>339.4641592797013</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290357</v>
+        <v>210.435825326546</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844908029</v>
+        <v>11.86108748398663</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.878475944610916</v>
       </c>
       <c r="R5" t="n">
-        <v>141.7279387935109</v>
+        <v>149.8038385025046</v>
       </c>
       <c r="S5" t="n">
-        <v>206.0667395191557</v>
+        <v>208.9963885290647</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5285121041781</v>
+        <v>223.0913004109637</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3352846618522</v>
+        <v>251.3455697708283</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2741734048381</v>
+        <v>137.3429611354488</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5657295174772</v>
+        <v>112.230074178902</v>
       </c>
       <c r="I6" t="n">
-        <v>87.00913941621907</v>
+        <v>89.37748891312407</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.6940588963563824</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.85243834772152</v>
+        <v>100.1233116570447</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3951412059964</v>
+        <v>171.6728431320337</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8852246862936</v>
+        <v>200.1624875127465</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9368199916082</v>
+        <v>225.941345500201</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.932843880847</v>
+        <v>167.9905132034614</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7102952610369</v>
+        <v>162.223027965736</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7021825641704</v>
+        <v>155.4364563751567</v>
       </c>
       <c r="J7" t="n">
-        <v>89.2490018495222</v>
+        <v>93.3262229583613</v>
       </c>
       <c r="K7" t="n">
-        <v>15.5152063360816</v>
+        <v>22.21533309073811</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.665061407065379</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822339</v>
+        <v>86.12300912732677</v>
       </c>
       <c r="R7" t="n">
-        <v>174.6794089020085</v>
+        <v>177.2724313533803</v>
       </c>
       <c r="S7" t="n">
-        <v>223.0034552135021</v>
+        <v>224.0084742267005</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6971923875768</v>
+        <v>227.9435976751111</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3158583304393</v>
+        <v>286.3190039298547</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859318</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859313</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859176</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>57.30004039831761</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>57.30004039831826</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>57.30004039831837</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859233</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151859</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1296030748037138</v>
+        <v>0.001039212602552482</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833534</v>
+        <v>0.01064283606589061</v>
       </c>
       <c r="I5" t="n">
-        <v>4.996522541370181</v>
+        <v>0.04006424385990461</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012171</v>
+        <v>0.08820187062588883</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656292</v>
+        <v>0.1321917400919354</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708708</v>
+        <v>0.163995542777301</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862763</v>
+        <v>0.1824766398979437</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491368</v>
+        <v>0.185429302704946</v>
       </c>
       <c r="O5" t="n">
-        <v>21.83666006983425</v>
+        <v>0.1750956323883147</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061756</v>
+        <v>0.1494400712628003</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404420956</v>
+        <v>0.1122232699338895</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147638795</v>
+        <v>0.06527943864508742</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089631</v>
+        <v>0.02368105718066471</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5673374599532575</v>
+        <v>0.004549153167673494</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0103682459842971</v>
+        <v>8.313700820419856e-05</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06934375837257202</v>
+        <v>0.0005560277618279631</v>
       </c>
       <c r="H6" t="n">
-        <v>0.669714719019314</v>
+        <v>0.005370057594496381</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38749343519601</v>
+        <v>0.01914393829100662</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752518</v>
+        <v>0.05253242990147436</v>
       </c>
       <c r="K6" t="n">
-        <v>11.19749628071484</v>
+        <v>0.08978628994394788</v>
       </c>
       <c r="L6" t="n">
-        <v>15.05641560629025</v>
+        <v>0.1207287471460233</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729598</v>
+        <v>0.1408847535122869</v>
       </c>
       <c r="N6" t="n">
-        <v>18.03515582339977</v>
+        <v>0.1446135537220894</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49864412472331</v>
+        <v>0.1322931491047435</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645625018</v>
+        <v>0.1061769153266046</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.851669928400597</v>
+        <v>0.07097645605368877</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921622</v>
+        <v>0.03452249559840635</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841414</v>
+        <v>0.01032797180412904</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2795040085280424</v>
+        <v>0.002241182075087271</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616582</v>
+        <v>3.658077380447127e-05</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761174789</v>
+        <v>0.0004661549973334806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026316</v>
+        <v>0.004144541703564948</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087837</v>
+        <v>0.01401855210162868</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150575</v>
+        <v>0.03295715831147707</v>
       </c>
       <c r="K7" t="n">
-        <v>6.754285489801253</v>
+        <v>0.05415873514474437</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007841137</v>
+        <v>0.06930453478537948</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367812443</v>
+        <v>0.0730719147183746</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587623208</v>
+        <v>0.07133442791013167</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508249605</v>
+        <v>0.06588888998673599</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764969941</v>
+        <v>0.05637932804113294</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493470998</v>
+        <v>0.03903412436762446</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475160954</v>
+        <v>0.0209600237891945</v>
       </c>
       <c r="S7" t="n">
-        <v>1.013142823470188</v>
+        <v>0.008123810271711655</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047409</v>
+        <v>0.001991753170424871</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051549888</v>
+        <v>2.542663621818988e-05</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31537,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31552,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31622,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31671,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31689,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31701,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563555</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,10 +35810,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35822,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35902,7 +35904,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037181</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887913</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36285,10 +36287,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861332</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>358.3296824113152</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36373,10 +36375,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165799</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36610,10 +36612,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>629.8686683355097</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,13 +36764,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,7 +36840,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.8164461252068</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,7 +37077,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37087,10 +37089,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.8164461252064</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412321</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
